--- a/python_ex/resource/forEn_pbr_data/forEn_pbr_daily.xlsx
+++ b/python_ex/resource/forEn_pbr_data/forEn_pbr_daily.xlsx
@@ -3,34 +3,41 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240328" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240327" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240330" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,7 +90,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -457,7 +464,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="12.6484375" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -982,6 +992,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -991,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,85 +1013,75 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>종목명</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>종목명</t>
+          <t>금액</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>금액</t>
+          <t>수량</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>수량</t>
+          <t>등락률</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>등락</t>
+          <t>종목코드</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>종목코드</t>
+          <t>종가</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>종가</t>
+          <t>대비</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>대비</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>등락률</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>선행 EPS</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>선행 PER</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>선행 EPS</t>
+          <t>BPS</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>선행 PER</t>
+          <t>PBR</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>주당배당금</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>PBR</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>주당배당금</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>배당수익률</t>
         </is>
@@ -1088,436 +1089,682 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>현대차</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20255</v>
       </c>
       <c r="D2" t="n">
-        <v>40189</v>
-      </c>
-      <c r="E2" t="n">
-        <v>164</v>
+        <v>127</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-1.00%</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>+1.46%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>005380</t>
-        </is>
+          <t>028260</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>160000</v>
       </c>
       <c r="H2" t="n">
-        <v>243500</v>
+        <v>-5000</v>
       </c>
       <c r="I2" t="n">
-        <v>-8500</v>
+        <v>12460</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.37</v>
+        <v>12.84</v>
       </c>
       <c r="K2" t="n">
-        <v>28521</v>
+        <v>12830</v>
       </c>
       <c r="L2" t="n">
-        <v>8.539999999999999</v>
+        <v>12.47</v>
       </c>
       <c r="M2" t="n">
-        <v>43093</v>
+        <v>164524</v>
       </c>
       <c r="N2" t="n">
-        <v>5.65</v>
+        <v>0.97</v>
       </c>
       <c r="O2" t="n">
-        <v>407147</v>
+        <v>2300</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.87</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>삼성물산</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16050</v>
       </c>
       <c r="D3" t="n">
-        <v>22161</v>
-      </c>
-      <c r="E3" t="n">
-        <v>140</v>
+        <v>228</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-1.14%</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.50%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>028260</t>
-        </is>
+          <t>105560</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>74900</v>
       </c>
       <c r="H3" t="n">
-        <v>160000</v>
+        <v>-1200</v>
       </c>
       <c r="I3" t="n">
-        <v>-5000</v>
+        <v>10955</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.03</v>
+        <v>6.84</v>
       </c>
       <c r="K3" t="n">
-        <v>12460</v>
+        <v>12563</v>
       </c>
       <c r="L3" t="n">
-        <v>12.84</v>
+        <v>5.96</v>
       </c>
       <c r="M3" t="n">
-        <v>12830</v>
+        <v>124124</v>
       </c>
       <c r="N3" t="n">
-        <v>12.47</v>
+        <v>0.6</v>
       </c>
       <c r="O3" t="n">
-        <v>164524</v>
+        <v>2950</v>
       </c>
       <c r="P3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2300</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>하나금융지주</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HD현대</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9627</v>
       </c>
       <c r="D4" t="n">
-        <v>13167</v>
-      </c>
-      <c r="E4" t="n">
-        <v>220</v>
+        <v>135</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>+4.35%</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.07%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>086790</t>
-        </is>
+          <t>267250</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>68900</v>
       </c>
       <c r="H4" t="n">
-        <v>64000</v>
+        <v>-1200</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>19933</v>
       </c>
       <c r="J4" t="n">
-        <v>0.16</v>
+        <v>3.46</v>
       </c>
       <c r="K4" t="n">
-        <v>11803</v>
+        <v>9811</v>
       </c>
       <c r="L4" t="n">
-        <v>5.42</v>
+        <v>7.02</v>
       </c>
       <c r="M4" t="n">
-        <v>12727</v>
+        <v>105921</v>
       </c>
       <c r="N4" t="n">
-        <v>5.03</v>
+        <v>0.65</v>
       </c>
       <c r="O4" t="n">
-        <v>124935</v>
+        <v>4600</v>
       </c>
       <c r="P4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3350</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5.23</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>18</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>삼성생명</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8434</v>
       </c>
       <c r="D5" t="n">
-        <v>12426</v>
-      </c>
-      <c r="E5" t="n">
-        <v>131</v>
+        <v>145</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-2.04%</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.78%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>032830</t>
-        </is>
+          <t>086790</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>64000</v>
       </c>
       <c r="H5" t="n">
-        <v>97900</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>500</v>
+        <v>11803</v>
       </c>
       <c r="J5" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12727</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M5" t="n">
+        <v>124935</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.51</v>
       </c>
-      <c r="K5" t="n">
-        <v>8817</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10071</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9.720000000000001</v>
-      </c>
       <c r="O5" t="n">
-        <v>124081</v>
+        <v>3350</v>
       </c>
       <c r="P5" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.06</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>풍산</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7692</v>
       </c>
       <c r="D6" t="n">
-        <v>5077</v>
-      </c>
-      <c r="E6" t="n">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-3.35%</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>+2.42%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>103140</t>
-        </is>
+          <t>032830</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>97900</v>
       </c>
       <c r="H6" t="n">
-        <v>48050</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
-        <v>-250</v>
+        <v>8817</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.52</v>
+        <v>11.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6395</v>
+        <v>10071</v>
       </c>
       <c r="L6" t="n">
-        <v>7.51</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>6550</v>
+        <v>124081</v>
       </c>
       <c r="N6" t="n">
-        <v>7.34</v>
+        <v>0.79</v>
       </c>
       <c r="O6" t="n">
-        <v>67365</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B7" t="n">
-        <v>46</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>KCC</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7555</v>
       </c>
       <c r="D7" t="n">
-        <v>4451</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-1.69%</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.64%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>002380</t>
-        </is>
+          <t>005380</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>243500</v>
       </c>
       <c r="H7" t="n">
-        <v>286000</v>
+        <v>-8500</v>
       </c>
       <c r="I7" t="n">
-        <v>-3000</v>
+        <v>28521</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.04</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>4564</v>
+        <v>43093</v>
       </c>
       <c r="L7" t="n">
-        <v>62.66</v>
+        <v>5.65</v>
       </c>
       <c r="M7" t="n">
-        <v>16813</v>
+        <v>407147</v>
       </c>
       <c r="N7" t="n">
-        <v>17.01</v>
+        <v>0.6</v>
       </c>
       <c r="O7" t="n">
-        <v>695902</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8000</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>기업은행</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7020</v>
+      </c>
+      <c r="D8" t="n">
+        <v>521</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-3.23%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>024110</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>15280</v>
+      </c>
+      <c r="H8" t="n">
+        <v>120</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3320</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3602</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M8" t="n">
+        <v>36302</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>960</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6740</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>+0.24%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>428500</v>
+      </c>
+      <c r="H9" t="n">
+        <v>500</v>
+      </c>
+      <c r="I9" t="n">
+        <v>41456</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29060</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>692323</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5193</v>
+      </c>
+      <c r="D10" t="n">
+        <v>483</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>+1.61%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>034220</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>10750</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-460</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>25521</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3762</v>
+      </c>
+      <c r="D11" t="n">
         <v>48</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>기업은행</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4076</v>
-      </c>
-      <c r="E8" t="n">
-        <v>274</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-2.70%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>024110</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>15280</v>
-      </c>
-      <c r="I8" t="n">
-        <v>120</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3320</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3602</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="O8" t="n">
-        <v>36302</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>960</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6.28</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+0.51%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>402340</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1837</v>
+      </c>
+      <c r="J11" t="n">
+        <v>43.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7439</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>118972</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3651</v>
+      </c>
+      <c r="D12" t="n">
+        <v>257</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-1.85%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>316140</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-90</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4191</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4049</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>39505</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1130</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3443</v>
+      </c>
+      <c r="D13" t="n">
+        <v>90</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-0.66%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>030200</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>38750</v>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5209</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4851</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="M13" t="n">
+        <v>64880</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1960</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.06</v>
       </c>
     </row>
   </sheetData>
